--- a/Data/baidu_pic_test.xlsx
+++ b/Data/baidu_pic_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heli\PycharmProjects\selenium_test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637647B0-8321-4C4E-8A9E-D2F75C140238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489848C3-1B83-4323-8FDA-18F75B38E62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baidu页面元素" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,34 @@
   </si>
   <si>
     <t>pic_ele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By.ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sttb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://image.baidu.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +120,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -112,13 +148,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,16 +436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -461,9 +501,47 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{AC864327-3240-451C-8661-70FBED9B1C1A}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{151441B9-8A46-47A8-B98B-FB90F0D27D3D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>